--- a/analysis_nuc_no_cyto.xlsx
+++ b/analysis_nuc_no_cyto.xlsx
@@ -3378,7 +3378,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3477,6 +3477,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3504,7 +3514,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3553,6 +3563,11 @@
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3601,6 +3616,11 @@
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="69" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -15439,8 +15459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256:B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15448,7 +15468,7 @@
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="37.1640625" customWidth="1"/>
@@ -24313,7 +24333,9 @@
       <c r="A256" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B256" s="3"/>
+      <c r="B256">
+        <v>70</v>
+      </c>
       <c r="C256" s="3">
         <f>COUNTIF($A$2:$A$31,A256)</f>
         <v>5</v>
@@ -24331,7 +24353,9 @@
       <c r="A257" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B257" s="3"/>
+      <c r="B257">
+        <v>71</v>
+      </c>
       <c r="C257" s="3">
         <f t="shared" ref="C257:C261" si="0">COUNTIF($A$2:$A$31,A257)</f>
         <v>9</v>
@@ -24349,7 +24373,9 @@
       <c r="A258" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B258" s="3"/>
+      <c r="B258">
+        <v>83</v>
+      </c>
       <c r="C258" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -24367,7 +24393,9 @@
       <c r="A259" t="s">
         <v>116</v>
       </c>
-      <c r="B259" s="3"/>
+      <c r="B259">
+        <v>28</v>
+      </c>
       <c r="C259" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -24385,7 +24413,9 @@
       <c r="A260" t="s">
         <v>106</v>
       </c>
-      <c r="B260" s="3"/>
+      <c r="B260">
+        <v>22</v>
+      </c>
       <c r="C260" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -24403,7 +24433,9 @@
       <c r="A261" t="s">
         <v>26</v>
       </c>
-      <c r="B261" s="3"/>
+      <c r="B261">
+        <v>15</v>
+      </c>
       <c r="C261" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -24457,7 +24489,9 @@
       <c r="A266" t="s">
         <v>181</v>
       </c>
-      <c r="B266" s="3"/>
+      <c r="B266">
+        <v>23</v>
+      </c>
       <c r="C266" s="3">
         <f>COUNTIF($B$2:$B$31,A266)</f>
         <v>1</v>
@@ -24475,7 +24509,9 @@
       <c r="A267" t="s">
         <v>57</v>
       </c>
-      <c r="B267" s="3"/>
+      <c r="B267">
+        <v>23</v>
+      </c>
       <c r="C267" s="3">
         <f t="shared" ref="C267:C272" si="3">COUNTIF($B$2:$B$31,A267)</f>
         <v>2</v>
@@ -24493,7 +24529,9 @@
       <c r="A268" t="s">
         <v>43</v>
       </c>
-      <c r="B268" s="3"/>
+      <c r="B268">
+        <v>22</v>
+      </c>
       <c r="C268" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -24511,7 +24549,9 @@
       <c r="A269" t="s">
         <v>11</v>
       </c>
-      <c r="B269" s="3"/>
+      <c r="B269">
+        <v>18</v>
+      </c>
       <c r="C269" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -24529,7 +24569,9 @@
       <c r="A270" t="s">
         <v>21</v>
       </c>
-      <c r="B270" s="3"/>
+      <c r="B270">
+        <v>16</v>
+      </c>
       <c r="C270" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -24547,7 +24589,9 @@
       <c r="A271" t="s">
         <v>285</v>
       </c>
-      <c r="B271" s="3"/>
+      <c r="B271">
+        <v>14</v>
+      </c>
       <c r="C271" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -24565,7 +24609,9 @@
       <c r="A272" t="s">
         <v>153</v>
       </c>
-      <c r="B272" s="3"/>
+      <c r="B272">
+        <v>14</v>
+      </c>
       <c r="C272" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -24583,7 +24629,9 @@
       <c r="A273" t="s">
         <v>314</v>
       </c>
-      <c r="B273" s="3"/>
+      <c r="B273">
+        <v>10</v>
+      </c>
       <c r="C273" s="3">
         <f t="shared" ref="C273:C301" si="6">COUNTIF($B$2:$B$31,A273)</f>
         <v>0</v>
@@ -24601,7 +24649,9 @@
       <c r="A274" t="s">
         <v>16</v>
       </c>
-      <c r="B274" s="3"/>
+      <c r="B274">
+        <v>9</v>
+      </c>
       <c r="C274" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24619,7 +24669,9 @@
       <c r="A275" t="s">
         <v>37</v>
       </c>
-      <c r="B275" s="3"/>
+      <c r="B275">
+        <v>15</v>
+      </c>
       <c r="C275" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24637,7 +24689,9 @@
       <c r="A276" t="s">
         <v>371</v>
       </c>
-      <c r="B276" s="3"/>
+      <c r="B276">
+        <v>12</v>
+      </c>
       <c r="C276" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24655,7 +24709,9 @@
       <c r="A277" t="s">
         <v>254</v>
       </c>
-      <c r="B277" s="3"/>
+      <c r="B277">
+        <v>7</v>
+      </c>
       <c r="C277" s="3">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -24673,7 +24729,9 @@
       <c r="A278" t="s">
         <v>107</v>
       </c>
-      <c r="B278" s="3"/>
+      <c r="B278">
+        <v>7</v>
+      </c>
       <c r="C278" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24691,7 +24749,9 @@
       <c r="A279" t="s">
         <v>400</v>
       </c>
-      <c r="B279" s="3"/>
+      <c r="B279">
+        <v>5</v>
+      </c>
       <c r="C279" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -24709,7 +24769,9 @@
       <c r="A280" t="s">
         <v>271</v>
       </c>
-      <c r="B280" s="3"/>
+      <c r="B280">
+        <v>5</v>
+      </c>
       <c r="C280" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24727,7 +24789,9 @@
       <c r="A281" t="s">
         <v>27</v>
       </c>
-      <c r="B281" s="3"/>
+      <c r="B281">
+        <v>5</v>
+      </c>
       <c r="C281" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24745,7 +24809,9 @@
       <c r="A282" t="s">
         <v>477</v>
       </c>
-      <c r="B282" s="3"/>
+      <c r="B282">
+        <v>5</v>
+      </c>
       <c r="C282" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -24763,7 +24829,9 @@
       <c r="A283" t="s">
         <v>158</v>
       </c>
-      <c r="B283" s="3"/>
+      <c r="B283">
+        <v>12</v>
+      </c>
       <c r="C283" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24781,7 +24849,9 @@
       <c r="A284" t="s">
         <v>71</v>
       </c>
-      <c r="B284" s="3"/>
+      <c r="B284">
+        <v>8</v>
+      </c>
       <c r="C284" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24799,7 +24869,9 @@
       <c r="A285" t="s">
         <v>131</v>
       </c>
-      <c r="B285" s="3"/>
+      <c r="B285">
+        <v>4</v>
+      </c>
       <c r="C285" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24817,7 +24889,9 @@
       <c r="A286" t="s">
         <v>97</v>
       </c>
-      <c r="B286" s="3"/>
+      <c r="B286">
+        <v>5</v>
+      </c>
       <c r="C286" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -24835,7 +24909,9 @@
       <c r="A287" t="s">
         <v>163</v>
       </c>
-      <c r="B287" s="3"/>
+      <c r="B287">
+        <v>4</v>
+      </c>
       <c r="C287" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -24853,7 +24929,9 @@
       <c r="A288" t="s">
         <v>88</v>
       </c>
-      <c r="B288" s="3"/>
+      <c r="B288">
+        <v>4</v>
+      </c>
       <c r="C288" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -24871,7 +24949,9 @@
       <c r="A289" t="s">
         <v>117</v>
       </c>
-      <c r="B289" s="3"/>
+      <c r="B289">
+        <v>4</v>
+      </c>
       <c r="C289" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24889,7 +24969,9 @@
       <c r="A290" t="s">
         <v>126</v>
       </c>
-      <c r="B290" s="3"/>
+      <c r="B290">
+        <v>5</v>
+      </c>
       <c r="C290" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24907,7 +24989,9 @@
       <c r="A291" t="s">
         <v>62</v>
       </c>
-      <c r="B291" s="3"/>
+      <c r="B291">
+        <v>4</v>
+      </c>
       <c r="C291" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -24925,7 +25009,9 @@
       <c r="A292" t="s">
         <v>233</v>
       </c>
-      <c r="B292" s="3"/>
+      <c r="B292">
+        <v>6</v>
+      </c>
       <c r="C292" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24943,7 +25029,9 @@
       <c r="A293" t="s">
         <v>52</v>
       </c>
-      <c r="B293" s="3"/>
+      <c r="B293">
+        <v>3</v>
+      </c>
       <c r="C293" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -24961,7 +25049,9 @@
       <c r="A294" t="s">
         <v>228</v>
       </c>
-      <c r="B294" s="3"/>
+      <c r="B294">
+        <v>3</v>
+      </c>
       <c r="C294" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24979,7 +25069,9 @@
       <c r="A295" t="s">
         <v>190</v>
       </c>
-      <c r="B295" s="3"/>
+      <c r="B295">
+        <v>3</v>
+      </c>
       <c r="C295" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24997,7 +25089,9 @@
       <c r="A296" t="s">
         <v>168</v>
       </c>
-      <c r="B296" s="3"/>
+      <c r="B296">
+        <v>3</v>
+      </c>
       <c r="C296" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -25015,7 +25109,9 @@
       <c r="A297" t="s">
         <v>276</v>
       </c>
-      <c r="B297" s="3"/>
+      <c r="B297">
+        <v>3</v>
+      </c>
       <c r="C297" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -25033,7 +25129,9 @@
       <c r="A298" t="s">
         <v>537</v>
       </c>
-      <c r="B298" s="3"/>
+      <c r="B298">
+        <v>2</v>
+      </c>
       <c r="C298" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -25051,7 +25149,9 @@
       <c r="A299" t="s">
         <v>223</v>
       </c>
-      <c r="B299" s="3"/>
+      <c r="B299">
+        <v>2</v>
+      </c>
       <c r="C299" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -25069,7 +25169,9 @@
       <c r="A300" t="s">
         <v>826</v>
       </c>
-      <c r="B300" s="3"/>
+      <c r="B300">
+        <v>1</v>
+      </c>
       <c r="C300" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -25087,7 +25189,9 @@
       <c r="A301" t="s">
         <v>1061</v>
       </c>
-      <c r="B301" s="3"/>
+      <c r="B301">
+        <v>1</v>
+      </c>
       <c r="C301" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -25112,7 +25216,7 @@
       </c>
       <c r="B304" s="3">
         <f>SUM(B267:B302)</f>
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
